--- a/Test Plan1.xlsx
+++ b/Test Plan1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Test items</t>
   </si>
@@ -70,13 +70,40 @@
   </si>
   <si>
     <t>e.t.c</t>
+  </si>
+  <si>
+    <t>Features not to be tested</t>
+  </si>
+  <si>
+    <t>Old version notepad</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Staffing and training needs</t>
+  </si>
+  <si>
+    <t>Course skill up</t>
+  </si>
+  <si>
+    <t>Environmental needs</t>
+  </si>
+  <si>
+    <t>Os Win7</t>
+  </si>
+  <si>
+    <t>Test deliverables</t>
+  </si>
+  <si>
+    <t>Test plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +114,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,9 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,62 +491,112 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:6" ht="21">
+      <c r="A9" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:6" ht="21">
+      <c r="A14" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="21">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3">
+        <v>43070</v>
       </c>
     </row>
   </sheetData>
